--- a/new-table-builders/tests/test-4-return.xlsx
+++ b/new-table-builders/tests/test-4-return.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>100043507, 100503710, 109689</t>
   </si>
@@ -89,16 +89,71 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>WP2292</t>
+  </si>
+  <si>
+    <t>WikiPathways_20170210</t>
+  </si>
+  <si>
+    <t>WP2309</t>
+  </si>
+  <si>
+    <t>WP232</t>
+  </si>
+  <si>
+    <t>WP2841</t>
+  </si>
+  <si>
+    <t>WP385</t>
+  </si>
+  <si>
+    <t>WP493</t>
+  </si>
+  <si>
+    <t>WP539</t>
+  </si>
+  <si>
+    <t>WP553</t>
+  </si>
+  <si>
+    <t>wpid</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,13 +176,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,15 +642,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -595,129 +662,211 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>109689</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>100043507</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>109689</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>109689</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D9">
-    <sortCondition descending="1" ref="C1"/>
+  <sortState ref="A2:I9">
+    <sortCondition descending="1" ref="F1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
